--- a/outputs/tabular/elsa_entities_annotated.xlsx
+++ b/outputs/tabular/elsa_entities_annotated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\egil\gits_wsl\elsa-introduction\outputs\tabular\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1064EB7F-F5DF-4606-B24F-97B0B183EEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5241174B-1E54-4760-A0B1-EC1E41B45F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23925" yWindow="-1635" windowWidth="17400" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3045" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="1061">
   <si>
     <t>doc_id</t>
   </si>
@@ -3237,7 +3237,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3248,12 +3248,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3293,16 +3287,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3659,10 +3650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K304"/>
+  <dimension ref="A1:K295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="J291" sqref="A2:K295"/>
+    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
+      <selection activeCell="D314" sqref="D314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3872,7 +3863,7 @@
       <c r="I6" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>1053</v>
       </c>
     </row>
@@ -5194,7 +5185,7 @@
       <c r="I46" t="s">
         <v>26</v>
       </c>
-      <c r="K46" s="4" t="s">
+      <c r="K46" s="3" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -5907,7 +5898,7 @@
       <c r="I68" t="s">
         <v>26</v>
       </c>
-      <c r="K68" s="3" t="s">
+      <c r="K68" s="2" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -5942,7 +5933,7 @@
       <c r="J69" t="s">
         <v>35</v>
       </c>
-      <c r="K69" s="6" t="s">
+      <c r="K69" t="s">
         <v>1053</v>
       </c>
     </row>
@@ -6006,7 +5997,7 @@
       <c r="I71" t="s">
         <v>26</v>
       </c>
-      <c r="K71" s="3" t="s">
+      <c r="K71" s="2" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -6076,7 +6067,7 @@
       <c r="J73" t="s">
         <v>20</v>
       </c>
-      <c r="K73" s="3" t="s">
+      <c r="K73" s="2" t="s">
         <v>1055</v>
       </c>
     </row>
@@ -6111,7 +6102,7 @@
       <c r="J74" t="s">
         <v>20</v>
       </c>
-      <c r="K74" s="3" t="s">
+      <c r="K74" s="2" t="s">
         <v>1055</v>
       </c>
     </row>
@@ -6146,7 +6137,7 @@
       <c r="J75" t="s">
         <v>35</v>
       </c>
-      <c r="K75" s="3" t="s">
+      <c r="K75" s="2" t="s">
         <v>1053</v>
       </c>
     </row>
@@ -6178,7 +6169,7 @@
       <c r="I76" t="s">
         <v>26</v>
       </c>
-      <c r="K76" s="4" t="s">
+      <c r="K76" s="3" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -6210,7 +6201,7 @@
       <c r="I77" t="s">
         <v>26</v>
       </c>
-      <c r="K77" s="3" t="s">
+      <c r="K77" s="2" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -6277,7 +6268,7 @@
       <c r="J79" t="s">
         <v>35</v>
       </c>
-      <c r="K79" s="5" t="s">
+      <c r="K79" s="2" t="s">
         <v>1053</v>
       </c>
     </row>
@@ -6568,7 +6559,7 @@
       <c r="I88" t="s">
         <v>26</v>
       </c>
-      <c r="K88" s="3" t="s">
+      <c r="K88" s="2" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -6635,7 +6626,7 @@
       <c r="J90" t="s">
         <v>20</v>
       </c>
-      <c r="K90" s="3" t="s">
+      <c r="K90" s="2" t="s">
         <v>1053</v>
       </c>
     </row>
@@ -6702,7 +6693,7 @@
       <c r="I92" t="s">
         <v>26</v>
       </c>
-      <c r="K92" s="5" t="s">
+      <c r="K92" s="2" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -7555,7 +7546,7 @@
       <c r="J118" t="s">
         <v>35</v>
       </c>
-      <c r="K118" s="4" t="s">
+      <c r="K118" s="3" t="s">
         <v>1056</v>
       </c>
     </row>
@@ -7721,7 +7712,7 @@
       <c r="I123" t="s">
         <v>88</v>
       </c>
-      <c r="K123" s="3" t="s">
+      <c r="K123" s="2" t="s">
         <v>1053</v>
       </c>
     </row>
@@ -7753,7 +7744,7 @@
       <c r="I124" t="s">
         <v>26</v>
       </c>
-      <c r="K124" s="3" t="s">
+      <c r="K124" s="2" t="s">
         <v>1053</v>
       </c>
     </row>
@@ -7785,7 +7776,7 @@
       <c r="I125" t="s">
         <v>26</v>
       </c>
-      <c r="K125" s="4" t="s">
+      <c r="K125" s="3" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -7817,7 +7808,7 @@
       <c r="I126" t="s">
         <v>26</v>
       </c>
-      <c r="K126" s="3" t="s">
+      <c r="K126" s="2" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -7849,7 +7840,7 @@
       <c r="I127" t="s">
         <v>26</v>
       </c>
-      <c r="K127" s="5" t="s">
+      <c r="K127" s="2" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -7881,7 +7872,7 @@
       <c r="I128" t="s">
         <v>26</v>
       </c>
-      <c r="K128" s="3" t="s">
+      <c r="K128" s="2" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -8009,7 +8000,7 @@
       <c r="I132" t="s">
         <v>26</v>
       </c>
-      <c r="K132" s="3" t="s">
+      <c r="K132" s="2" t="s">
         <v>1055</v>
       </c>
     </row>
@@ -8073,7 +8064,7 @@
       <c r="I134" t="s">
         <v>26</v>
       </c>
-      <c r="K134" s="3" t="s">
+      <c r="K134" s="2" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -8140,7 +8131,7 @@
       <c r="I136" t="s">
         <v>26</v>
       </c>
-      <c r="K136" s="3" t="s">
+      <c r="K136" s="2" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -8207,7 +8198,7 @@
       <c r="I138" t="s">
         <v>88</v>
       </c>
-      <c r="K138" s="3" t="s">
+      <c r="K138" s="2" t="s">
         <v>1055</v>
       </c>
     </row>
@@ -8271,7 +8262,7 @@
       <c r="I140" t="s">
         <v>26</v>
       </c>
-      <c r="K140" s="3" t="s">
+      <c r="K140" s="2" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -9037,7 +9028,7 @@
       <c r="I163" t="s">
         <v>26</v>
       </c>
-      <c r="K163" s="3" t="s">
+      <c r="K163" s="2" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -9072,7 +9063,7 @@
       <c r="J164" t="s">
         <v>35</v>
       </c>
-      <c r="K164" s="3" t="s">
+      <c r="K164" s="2" t="s">
         <v>1053</v>
       </c>
     </row>
@@ -9136,7 +9127,7 @@
       <c r="I166" t="s">
         <v>26</v>
       </c>
-      <c r="K166" s="3" t="s">
+      <c r="K166" s="2" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -9203,7 +9194,7 @@
       <c r="J168" t="s">
         <v>35</v>
       </c>
-      <c r="K168" s="5" t="s">
+      <c r="K168" s="2" t="s">
         <v>1053</v>
       </c>
     </row>
@@ -9267,7 +9258,7 @@
       <c r="I170" t="s">
         <v>26</v>
       </c>
-      <c r="K170" s="3" t="s">
+      <c r="K170" s="2" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -9334,7 +9325,7 @@
       <c r="J172" t="s">
         <v>35</v>
       </c>
-      <c r="K172" s="3" t="s">
+      <c r="K172" s="2" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -9366,7 +9357,7 @@
       <c r="I173" t="s">
         <v>26</v>
       </c>
-      <c r="K173" s="6" t="s">
+      <c r="K173" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -9462,7 +9453,7 @@
       <c r="I176" t="s">
         <v>26</v>
       </c>
-      <c r="K176" s="3" t="s">
+      <c r="K176" s="2" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -9494,7 +9485,7 @@
       <c r="I177" t="s">
         <v>26</v>
       </c>
-      <c r="K177" s="3" t="s">
+      <c r="K177" s="2" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -9561,7 +9552,7 @@
       <c r="J179" t="s">
         <v>35</v>
       </c>
-      <c r="K179" s="5" t="s">
+      <c r="K179" s="2" t="s">
         <v>1055</v>
       </c>
     </row>
@@ -9596,7 +9587,7 @@
       <c r="J180" t="s">
         <v>35</v>
       </c>
-      <c r="K180" s="3" t="s">
+      <c r="K180" s="2" t="s">
         <v>1053</v>
       </c>
     </row>
@@ -9660,7 +9651,7 @@
       <c r="I182" t="s">
         <v>334</v>
       </c>
-      <c r="K182" s="4" t="s">
+      <c r="K182" s="3" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -10155,7 +10146,7 @@
       <c r="J197" t="s">
         <v>35</v>
       </c>
-      <c r="K197" s="3" t="s">
+      <c r="K197" s="2" t="s">
         <v>1053</v>
       </c>
     </row>
@@ -10219,7 +10210,7 @@
       <c r="I199" t="s">
         <v>88</v>
       </c>
-      <c r="K199" s="3" t="s">
+      <c r="K199" s="2" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -10286,7 +10277,7 @@
       <c r="I201" t="s">
         <v>26</v>
       </c>
-      <c r="K201" s="3" t="s">
+      <c r="K201" s="2" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -10321,7 +10312,7 @@
       <c r="J202" t="s">
         <v>35</v>
       </c>
-      <c r="K202" s="6" t="s">
+      <c r="K202" t="s">
         <v>1053</v>
       </c>
     </row>
@@ -10839,7 +10830,7 @@
       <c r="I218" t="s">
         <v>26</v>
       </c>
-      <c r="K218" s="4" t="s">
+      <c r="K218" s="3" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -11587,7 +11578,7 @@
       <c r="J241" t="s">
         <v>35</v>
       </c>
-      <c r="K241" s="3" t="s">
+      <c r="K241" s="2" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -11654,7 +11645,7 @@
       <c r="J243" t="s">
         <v>35</v>
       </c>
-      <c r="K243" s="3" t="s">
+      <c r="K243" s="2" t="s">
         <v>1053</v>
       </c>
     </row>
@@ -12618,7 +12609,7 @@
       <c r="J272" t="s">
         <v>35</v>
       </c>
-      <c r="K272" s="4" t="s">
+      <c r="K272" s="3" t="s">
         <v>1053</v>
       </c>
     </row>
@@ -13391,33 +13382,10 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A300" s="2" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A301" s="2" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A302" s="2" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A303" s="2" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A304" s="2"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K219:K264 K7:K41 K1 K47:K67 K126:K174 K282:K1048576 K183:K212 K77:K98 K103:K115" xr:uid="{594C32E1-127A-4E2E-9460-F050E6719EDF}">
-      <formula1>$A$300:$A$303</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K219:K264 K103:K115 K77:K98 K183:K212 K282:K1048576 K126:K174 K47:K67 K1 K7:K41" xr:uid="{594C32E1-127A-4E2E-9460-F050E6719EDF}">
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
